--- a/result/zernike_15_moment_times_10_P.xlsx
+++ b/result/zernike_15_moment_times_10_P.xlsx
@@ -458,13 +458,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.167633056640625</v>
+        <v>0.1837964057922363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1975028514862061</v>
+        <v>0.1992244720458984</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3182492256164551</v>
+        <v>0.3188071250915527</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.58626389503479</v>
+        <v>0.6514708995819092</v>
       </c>
       <c r="D3" t="n">
-        <v>3.271665096282959</v>
+        <v>3.358736515045166</v>
       </c>
       <c r="E3" t="n">
-        <v>9.275940895080566</v>
+        <v>8.468538045883179</v>
       </c>
     </row>
   </sheetData>
